--- a/raw data/Crayfish feed difference.xlsx
+++ b/raw data/Crayfish feed difference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e64183e75194b93c/RPTU PolyRAS/Previous work unpublished/Revision/Data processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{2202B7AA-B66F-6F45-B8AC-D9EC20848662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23662317-3B4F-E14A-88F7-CA02A851D31F}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{2202B7AA-B66F-6F45-B8AC-D9EC20848662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19162559-6E2A-B64F-84EC-BC0A9502EAC6}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="1520" windowWidth="24960" windowHeight="16440" xr2:uid="{8A85AE8A-9DAF-C244-855A-86208B353B6C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Feed</t>
   </si>
@@ -68,9 +68,6 @@
     <t>tank_gain</t>
   </si>
   <si>
-    <t>tank_gain_%</t>
-  </si>
-  <si>
     <t>SGR</t>
   </si>
   <si>
@@ -80,10 +77,13 @@
     <t>Nitrogen</t>
   </si>
   <si>
-    <t>C:N</t>
-  </si>
-  <si>
     <t>Fish Faeces</t>
+  </si>
+  <si>
+    <t>Wheat+Fish Faeces</t>
+  </si>
+  <si>
+    <t>tank_gain_percent</t>
   </si>
 </sst>
 </file>
@@ -480,15 +480,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83C64FD-77C5-714E-BA54-0142089FE6E6}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B16"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,22 +514,19 @@
         <v>9</v>
       </c>
       <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -571,12 +568,8 @@
       <c r="L2" s="3">
         <v>9.25</v>
       </c>
-      <c r="M2">
-        <f>K2/L2</f>
-        <v>5.0281081081081078</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -593,23 +586,23 @@
         <v>4</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F10" si="0">E3/D3</f>
+        <f t="shared" ref="F3:F13" si="0">E3/D3</f>
         <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G10" si="1">F3*B3</f>
+        <f t="shared" ref="G3:G13" si="1">F3*B3</f>
         <v>12.02</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H10" si="2">C3-G3</f>
+        <f t="shared" ref="H3:H13" si="2">C3-G3</f>
         <v>3.59</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I10" si="3">H3/G3</f>
+        <f t="shared" ref="I3:I13" si="3">H3/G3</f>
         <v>0.29866888519134777</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J10" si="4">(LN(C3)-LN(G3))/56*100</f>
+        <f t="shared" ref="J3:J13" si="4">(LN(C3)-LN(G3))/56*100</f>
         <v>0.46667822396478376</v>
       </c>
       <c r="K3" s="3">
@@ -618,12 +611,8 @@
       <c r="L3" s="3">
         <v>9.48</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M10" si="5">K3/L3</f>
-        <v>4.9546413502109701</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -665,14 +654,10 @@
       <c r="L4" s="3">
         <v>9.41</v>
       </c>
-      <c r="M4">
-        <f t="shared" si="5"/>
-        <v>5.0818278427205099</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>12.71</v>
@@ -712,14 +697,10 @@
       <c r="L5" s="3">
         <v>3.15</v>
       </c>
-      <c r="M5">
-        <f t="shared" si="5"/>
-        <v>6.5746031746031752</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>12.620000000000001</v>
@@ -759,14 +740,10 @@
       <c r="L6" s="3">
         <v>3.26</v>
       </c>
-      <c r="M6">
-        <f t="shared" si="5"/>
-        <v>6.5981595092024552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>12.65</v>
@@ -806,12 +783,8 @@
       <c r="L7" s="3">
         <v>3.02</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="5"/>
-        <v>6.4172185430463573</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -853,12 +826,8 @@
       <c r="L8" s="3">
         <v>3.06</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="5"/>
-        <v>14.003267973856209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -900,12 +869,8 @@
       <c r="L9" s="3">
         <v>3.15</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="5"/>
-        <v>13.755555555555555</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -947,9 +912,140 @@
       <c r="L10" s="3">
         <v>2.9</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="5"/>
-        <v>14.827586206896552</v>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>11.21</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7.58</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>5.6050000000000004</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>1.9749999999999996</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0.35236396074933085</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0.53902525558956627</v>
+      </c>
+      <c r="K11">
+        <f>AVERAGE(K5:K10)</f>
+        <v>31.796666666666663</v>
+      </c>
+      <c r="L11">
+        <f>AVERAGE(L5:L10)</f>
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>12.23</v>
+      </c>
+      <c r="C12" s="1">
+        <v>15.32</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>12.23</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>3.09</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0.25265739983646768</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0.40226288323815018</v>
+      </c>
+      <c r="K12">
+        <f>AVERAGE(K5:K10)</f>
+        <v>31.796666666666663</v>
+      </c>
+      <c r="L12">
+        <f>AVERAGE(L5:L10)</f>
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10.46</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>1.0100000000000016</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0.10687830687830706</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0.18132806630558132</v>
+      </c>
+      <c r="K13">
+        <f>AVERAGE(K5:K10)</f>
+        <v>31.796666666666663</v>
+      </c>
+      <c r="L13">
+        <f>AVERAGE(L5:L10)</f>
+        <v>3.09</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
